--- a/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A15_01_従業員の個人番号連携_OIC統合.xlsx
+++ b/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A15_01_従業員の個人番号連携_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scsk_yoshioka-shinta\Desktop\wk3\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ2)" sheetId="10" r:id="rId7"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ3) " sheetId="11" r:id="rId8"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ4)" sheetId="12" r:id="rId9"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId10"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId11"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="13" r:id="rId10"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId11"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -31,11 +32,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3) '!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$15</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="151">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -489,9 +491,6 @@
   <si>
     <t>4-2</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Issue1.0</t>
   </si>
   <si>
     <t>SCSK 吉岡伸太</t>
@@ -598,10 +597,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>T_TE020_CMM_002_A15_01</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t>● アドオンの部分について、機能設計書(</t>
     </r>
@@ -747,6 +742,182 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="7">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>シナリオ5</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>テスト・シナリオ5</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>①、②左記の通り</t>
+    <rPh sb="3" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A15_01を実行する。
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A15_01(従業員の個人番号連携)</t>
+    <rPh sb="15" eb="18">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(プロファイル値参照)
+・前回処理実行日時取得</t>
+    <rPh sb="21" eb="23">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD001(プロファイル値更新)
+・今回処理実行日時更新</t>
+    <rPh sb="21" eb="23">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A15_01から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①XXCMM002A15_01から共通処理XXCCD001が実行され、正常終了する。
+②プロファイルオプション値テーブルが更新される。</t>
+    <rPh sb="17" eb="21">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CMM_002_A15_01_従業員の個人番号連携_OIC統合_エビデンス(シナリオ5).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
+  <si>
+    <t>T_TE020_CMM_002_A15_01</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -757,7 +928,7 @@
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,6 +1109,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -988,7 +1174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1598,6 +1784,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1611,7 +1808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1674,9 +1871,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1966,6 +2160,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2011,6 +2223,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -5198,6 +5411,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30948630"/>
+          <a:ext cx="6939915" cy="2606040"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33649920"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="30129480"/>
+          <a:ext cx="3303270" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -5540,9 +6478,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -5579,15 +6519,15 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
     </row>
     <row r="7" spans="2:8" ht="6" customHeight="1">
       <c r="B7" s="5"/>
@@ -5596,41 +6536,41 @@
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
     </row>
     <row r="10" spans="2:8" ht="6" customHeight="1">
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
     </row>
     <row r="12" spans="2:8" ht="6" customHeight="1"/>
     <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
+      <c r="B13" s="135" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="6"/>
@@ -5643,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="6" customHeight="1">
@@ -5667,7 +6607,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>45078</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="6" customHeight="1">
@@ -5679,7 +6619,7 @@
         <v>72</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="6" customHeight="1">
@@ -5691,7 +6631,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5740,236 +6680,529 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25">
+      <c r="A2" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="24"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B9" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B10" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42">
+      <c r="A11" s="37"/>
+      <c r="B11" s="133" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="77">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42">
+      <c r="A12" s="37"/>
+      <c r="B12" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="117"/>
+      <c r="D12" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="75">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="52.5">
+      <c r="B13" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="75">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B14" s="71"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" ht="6" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25">
+      <c r="A18" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G14">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
-    <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="30" style="27" customWidth="1"/>
-    <col min="6" max="8" width="13.125" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
+    <col min="2" max="3" width="9.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="30" style="26" customWidth="1"/>
+    <col min="6" max="8" width="13.125" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="17.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="138" t="s">
+      <c r="E5" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="138" t="s">
+      <c r="G5" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="137" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="135"/>
-      <c r="C6" s="110" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="133"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="138"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="66"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="67"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="68"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="69"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="68"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="68"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="69"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="68"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="68"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="69"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="68"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="70"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="68"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="70"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="69"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="68"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="71"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="68"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="70"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="68"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="71"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="70"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="68"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="69"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="68"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="68"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="70"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="69"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="68"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="69"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="68"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="68"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="70"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="69"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="68"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="69"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="68"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="68"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="70"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="68"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="69"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="68"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="66"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="69"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:8" ht="14.25" thickBot="1">
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5992,45 +7225,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="27" customWidth="1"/>
-    <col min="6" max="7" width="11.125" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="1.625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="26" customWidth="1"/>
+    <col min="6" max="7" width="11.125" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="6" customHeight="1">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="17.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="6" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6038,54 +7271,54 @@
       <c r="A6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="111" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="112" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="6" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6093,61 +7326,61 @@
       <c r="A13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="111" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="114" t="s">
+      <c r="E14" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="113" t="s">
+      <c r="G14" s="112" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="65"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="65"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="65"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6166,12 +7399,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
@@ -6211,32 +7446,32 @@
       <c r="A6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="103"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="102"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="92">
+      <c r="B8" s="91">
         <v>45078</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>13</v>
@@ -6244,27 +7479,35 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="93"/>
+      <c r="I8" s="92"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="92"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="128">
+        <v>45575</v>
+      </c>
+      <c r="C9" s="129" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="131" t="s">
+        <v>149</v>
+      </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="93"/>
+      <c r="I9" s="92"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="98"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="17"/>
@@ -6297,10 +7540,10 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="27"/>
+    <col min="1" max="13" width="6.625" style="26" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
@@ -6319,156 +7562,156 @@
       <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="17.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
     <row r="4" spans="1:13" ht="6" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
     <row r="9" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B9" s="38" t="s">
-        <v>114</v>
+      <c r="B9" s="37" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
     <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
     <row r="13" spans="1:13" ht="6" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
     </row>
     <row r="16" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
     <row r="19" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="30"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="30"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:13" ht="14.45" customHeight="1">
-      <c r="J21" s="30"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:13" ht="14.45" customHeight="1">
-      <c r="J22" s="30"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:13" ht="6" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.45" customHeight="1">
-      <c r="J25" s="30"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="30"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="30"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="30"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="30"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="30"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="M31" s="30"/>
+      <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13" ht="14.45" customHeight="1">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="M32" s="30"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="14.45" customHeight="1">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="30"/>
+      <c r="M33" s="29"/>
     </row>
     <row r="34" spans="2:13" ht="14.45" customHeight="1">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="30"/>
+      <c r="M34" s="29"/>
     </row>
     <row r="35" spans="2:13" ht="14.45" customHeight="1">
-      <c r="M35" s="30"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="14.45" customHeight="1">
-      <c r="M36" s="30"/>
+      <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="14.45" customHeight="1">
-      <c r="M37" s="30"/>
+      <c r="M37" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6485,6 +7728,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
@@ -6493,188 +7737,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="82"/>
-    <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
-    <col min="5" max="5" width="103.375" style="82" customWidth="1"/>
-    <col min="6" max="6" width="3.375" style="82" customWidth="1"/>
-    <col min="7" max="16384" width="2.75" style="82"/>
+    <col min="1" max="3" width="2.75" style="81"/>
+    <col min="4" max="4" width="22.125" style="81" customWidth="1"/>
+    <col min="5" max="5" width="103.375" style="81" customWidth="1"/>
+    <col min="6" max="6" width="3.375" style="81" customWidth="1"/>
+    <col min="7" max="16384" width="2.75" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6" customHeight="1">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:6" ht="17.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-    </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+    </row>
+    <row r="4" spans="1:6" s="84" customFormat="1" ht="11.25">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-    </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-    </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="104" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+    </row>
+    <row r="5" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:6" s="84" customFormat="1" ht="12">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="84"/>
-    </row>
-    <row r="7" spans="1:6" s="85" customFormat="1">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="122" t="s">
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="1:6" s="84" customFormat="1">
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="84"/>
-    </row>
-    <row r="8" spans="1:6" s="85" customFormat="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="122" t="s">
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" s="84" customFormat="1">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="84"/>
-    </row>
-    <row r="9" spans="1:6" s="85" customFormat="1">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="122" t="s">
+      <c r="F8" s="83"/>
+    </row>
+    <row r="9" spans="1:6" s="84" customFormat="1">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="84"/>
-    </row>
-    <row r="10" spans="1:6" s="85" customFormat="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="122" t="s">
+      <c r="F9" s="83"/>
+    </row>
+    <row r="10" spans="1:6" s="84" customFormat="1">
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="84"/>
-    </row>
-    <row r="11" spans="1:6" s="85" customFormat="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="84"/>
-    </row>
-    <row r="12" spans="1:6" s="85" customFormat="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="84"/>
-    </row>
-    <row r="13" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="84"/>
-    </row>
-    <row r="14" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="84"/>
-    </row>
-    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="84"/>
-    </row>
-    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="84"/>
-    </row>
-    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="84"/>
-    </row>
-    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-    </row>
-    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
+      <c r="F10" s="83"/>
+    </row>
+    <row r="11" spans="1:6" s="84" customFormat="1">
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="132" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="83"/>
+    </row>
+    <row r="12" spans="1:6" s="84" customFormat="1">
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="83"/>
+    </row>
+    <row r="13" spans="1:6" s="84" customFormat="1" ht="11.25">
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="83"/>
+    </row>
+    <row r="14" spans="1:6" s="84" customFormat="1" ht="11.25">
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="83"/>
+    </row>
+    <row r="15" spans="1:6" s="84" customFormat="1" ht="11.25">
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="83"/>
+    </row>
+    <row r="16" spans="1:6" s="84" customFormat="1" ht="11.25">
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="83"/>
+    </row>
+    <row r="17" spans="1:6" s="84" customFormat="1" ht="12" thickBot="1">
+      <c r="A17" s="88"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="83"/>
+    </row>
+    <row r="18" spans="1:6" s="84" customFormat="1" ht="11.25">
+      <c r="A18" s="83"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+    </row>
+    <row r="19" spans="1:6" s="84" customFormat="1" ht="11.25">
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6683,6 +7931,7 @@
     <hyperlink ref="D8" location="'テスト仕様_テスト結果(テスト・シナリオ2)'!A1" display="シナリオ2"/>
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
+    <hyperlink ref="D11" location="'テスト仕様_テスト結果(テスト・シナリオ5)'!A1" display="シナリオ5"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
@@ -6702,151 +7951,151 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="60.625" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="60.625" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="6" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="33"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="125" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" customHeight="1">
-      <c r="B7" s="131" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="131"/>
+      <c r="B7" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="136"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="127"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" thickBot="1">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" thickBot="1">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="115" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="117" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B12" s="121" t="s">
+    <row r="12" spans="1:4" s="116" customFormat="1" ht="21.75" thickBot="1">
+      <c r="B12" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="122" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="33"/>
+      <c r="B13" s="32"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" thickBot="1">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" thickBot="1">
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="115" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21.75" thickBot="1">
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="122" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="32"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B20" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B21" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="21.75" thickBot="1">
+      <c r="B22" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="122" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="33"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B20" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B21" s="115" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="116" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="21.75" thickBot="1">
-      <c r="B22" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="123" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="33"/>
+      <c r="B23" s="32"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="33" t="s">
-        <v>130</v>
+      <c r="B25" s="32" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="33"/>
+      <c r="B26" s="32"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6872,521 +8121,521 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21">
-      <c r="A11" s="38"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="119" t="s">
+      <c r="C11" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="I11" s="77">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="94.5">
+      <c r="A12" s="37"/>
+      <c r="B12" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="78">
+      <c r="D12" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="77">
         <v>45082</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="94.5">
-      <c r="A12" s="38"/>
-      <c r="B12" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="46" t="s">
+    <row r="13" spans="1:9" ht="42">
+      <c r="A13" s="37"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="77">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="42">
+      <c r="A14" s="37"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="F14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="77">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="115.5">
+      <c r="B15" s="63"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="78">
+      <c r="H15" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="77">
         <v>45082</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42">
-      <c r="A13" s="38"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="78">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="42">
-      <c r="A14" s="38"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="78">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="115.5">
-      <c r="B15" s="64"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="78">
-        <v>45082</v>
-      </c>
-    </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="64"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="78"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="B17" s="64"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="76"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="64"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="76"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="B19" s="64"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="76"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="64"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="76"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="38"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="76"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="38"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="76"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="B23" s="64"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="76"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="75"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="38"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="76"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="75"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="38"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="76"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="75"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="64"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="76"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="75"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="64"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="76"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="64"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="76"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="64"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="76"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="64"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="76"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="64"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="76"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="75"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="64"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="76"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="75"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="64"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="76"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="75"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="B34" s="64"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="75"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="B35" s="68"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="76"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="75"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="B36" s="68"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="76"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="75"/>
     </row>
     <row r="37" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B37" s="72"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="77"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="76"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" ht="6" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="14.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="B43" s="125" t="s">
+      <c r="B43" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -7414,549 +8663,549 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21">
-      <c r="A11" s="38"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="119" t="s">
+      <c r="C11" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="I11" s="77">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="84">
+      <c r="A12" s="37"/>
+      <c r="B12" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="78">
+      <c r="D12" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="77">
         <v>45082</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="84">
-      <c r="A12" s="38"/>
-      <c r="B12" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="46" t="s">
+    <row r="13" spans="1:9" ht="42">
+      <c r="A13" s="37"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="77">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="42">
+      <c r="A14" s="37"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="46" t="s">
+      <c r="F14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="78">
+      <c r="H14" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="77">
         <v>45082</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42">
-      <c r="A13" s="38"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="46" t="s">
+    <row r="15" spans="1:9" ht="115.5">
+      <c r="B15" s="63"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="78">
+      <c r="H15" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="77">
         <v>45082</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
-      <c r="A14" s="38"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="78">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="115.5">
-      <c r="B15" s="64"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="78">
-        <v>45082</v>
-      </c>
-    </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="64"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="76"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="B17" s="64"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="76"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="64"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="76"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="B19" s="64"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="76"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="64"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="76"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" s="64"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="76"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="B22" s="64"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="76"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="B23" s="64"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="76"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="75"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="38"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="76"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="75"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="38"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="76"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="75"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="64"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="76"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="75"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="38"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="76"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="38"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="76"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="64"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="76"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="64"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="76"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="64"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="76"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="75"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="64"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="76"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="75"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="64"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="76"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="75"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="B34" s="64"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="75"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="B35" s="64"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="76"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="75"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="B36" s="64"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="76"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="75"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="B37" s="68"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="76"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="75"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="B38" s="68"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="76"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="75"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="B39" s="68"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="76"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B40" s="72"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="77"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="76"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9" ht="6" customHeight="1">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
     </row>
     <row r="44" spans="1:9" ht="14.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -7984,496 +9233,496 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21">
-      <c r="A11" s="38"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="119" t="s">
+      <c r="C11" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="I11" s="77">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="84">
+      <c r="B12" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="78">
+      <c r="D12" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="77">
         <v>45082</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="84">
-      <c r="B12" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="46" t="s">
+    <row r="13" spans="1:9" ht="42">
+      <c r="B13" s="63"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="77">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="42">
+      <c r="B14" s="63"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="77">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42">
+      <c r="B15" s="63"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="F15" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="G15" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="78">
+      <c r="H15" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="77">
         <v>45082</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42">
-      <c r="B13" s="64"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="120" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="78">
+    <row r="16" spans="1:9" ht="73.5">
+      <c r="B16" s="63"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="77">
         <v>45082</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
-      <c r="B14" s="64"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="78">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="42">
-      <c r="B15" s="64"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="78">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="73.5">
-      <c r="B16" s="64"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="78">
-        <v>45082</v>
-      </c>
-    </row>
     <row r="17" spans="1:9">
-      <c r="B17" s="64"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="76"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="38"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="76"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="38"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="76"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="64"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="76"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="38"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="76"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="38"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="76"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="B23" s="64"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="76"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="75"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="64"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="76"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="75"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="B25" s="64"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="76"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="75"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="64"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="76"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="75"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="64"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="76"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="64"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="76"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="64"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="76"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="64"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="76"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="68"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="76"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="75"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="68"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="76"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="75"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="68"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="76"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="75"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B34" s="72"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="77"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="6" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="14.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -8501,506 +9750,506 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21">
-      <c r="A11" s="38"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="119" t="s">
+      <c r="C11" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="I11" s="77">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="84">
+      <c r="B12" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="119" t="s">
+      <c r="D12" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="78">
+      <c r="F12" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="77">
         <v>45082</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="84">
-      <c r="B12" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="46" t="s">
+    <row r="13" spans="1:9" ht="42">
+      <c r="B13" s="63"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="77">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="42">
+      <c r="B14" s="63"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="77">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42">
+      <c r="B15" s="63"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="46" t="s">
+      <c r="F15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="78">
+      <c r="H15" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="77">
         <v>45082</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42">
-      <c r="B13" s="64"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="78">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="42">
-      <c r="B14" s="64"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="78">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="42">
-      <c r="B15" s="64"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="78">
-        <v>45082</v>
-      </c>
-    </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="64"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="76"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="B17" s="64"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="76"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="124"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="76"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="B19" s="124"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="76"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="38"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="76"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="38"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="76"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="B22" s="124"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="76"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="38"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="76"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="75"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="38"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="76"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="75"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="B25" s="124"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="76"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="75"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="124"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="76"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="75"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="64"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="76"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="64"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="76"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="64"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="76"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="64"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="76"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="64"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="76"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="75"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="64"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="76"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="75"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="68"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="76"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="75"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="B34" s="68"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="75"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="B35" s="68"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="76"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="75"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B36" s="72"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="77"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="76"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9" ht="6" customHeight="1">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:9" ht="14.25">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
